--- a/seoul_restaurant_data_all.xlsx
+++ b/seoul_restaurant_data_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyeeun/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB7B7E1C-7800-4C4E-A985-965943847392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BB8557-2467-0940-8308-068A50A1F473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16340" xr2:uid="{1AD42DBA-F3A3-DC40-9689-7563BB0FD1A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="258">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -573,10 +573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>roccommit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>남미플랜트랩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -905,6 +901,66 @@
   </si>
   <si>
     <t>10:30-22:00</t>
+  </si>
+  <si>
+    <t>예약여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브레이크타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-17:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recomint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1271,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9FBFBC-D8B2-9C4E-93E3-530D5759E74F}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="107" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1283,7 +1339,7 @@
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1302,8 +1358,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1319,8 +1381,11 @@
       <c r="F2">
         <v>4.38</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1336,8 +1401,11 @@
       <c r="F3">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1356,8 +1424,11 @@
       <c r="F4">
         <v>4.46</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1376,8 +1447,14 @@
       <c r="F5">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1393,8 +1470,14 @@
       <c r="F6">
         <v>4.66</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1413,8 +1496,11 @@
       <c r="F7">
         <v>4.5199999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1430,8 +1516,11 @@
       <c r="F8">
         <v>4.72</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1447,8 +1536,11 @@
       <c r="F9">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1464,8 +1556,11 @@
       <c r="F10">
         <v>4.5199999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1484,8 +1579,11 @@
       <c r="F11">
         <v>4.32</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1504,8 +1602,11 @@
       <c r="F12">
         <v>4.5199999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1524,8 +1625,11 @@
       <c r="F13">
         <v>4.4800000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1541,8 +1645,11 @@
       <c r="F14">
         <v>4.7300000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1561,8 +1668,11 @@
       <c r="F15">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1578,8 +1688,14 @@
       <c r="F16">
         <v>4.42</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1598,8 +1714,14 @@
       <c r="F17">
         <v>4.78</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="F18">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1635,8 +1763,11 @@
       <c r="F19">
         <v>4.34</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -1655,8 +1786,14 @@
       <c r="F20">
         <v>4.46</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1672,8 +1809,14 @@
       <c r="F21">
         <v>4.5199999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1689,8 +1832,11 @@
       <c r="F22">
         <v>4.4800000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -1709,8 +1855,14 @@
       <c r="F23">
         <v>4.5199999999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>247</v>
+      </c>
+      <c r="H23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -1726,8 +1878,11 @@
       <c r="F24">
         <v>4.26</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -1746,8 +1901,11 @@
       <c r="F25">
         <v>4.32</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -1763,8 +1921,14 @@
       <c r="F26">
         <v>4.54</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -1783,8 +1947,14 @@
       <c r="F27">
         <v>4.42</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>245</v>
+      </c>
+      <c r="H27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -1800,8 +1970,14 @@
       <c r="F28">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="s">
+        <v>247</v>
+      </c>
+      <c r="H28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -1817,8 +1993,11 @@
       <c r="F29">
         <v>4.32</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -1837,8 +2016,14 @@
       <c r="F30">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -1854,8 +2039,11 @@
       <c r="F31">
         <v>4.26</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -1871,8 +2059,11 @@
       <c r="F32">
         <v>4.3099999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -1891,8 +2082,14 @@
       <c r="F33">
         <v>4.5599999999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -1908,8 +2105,14 @@
       <c r="F34">
         <v>4.46</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="s">
+        <v>247</v>
+      </c>
+      <c r="H34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -1925,8 +2128,14 @@
       <c r="F35">
         <v>4.45</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="s">
+        <v>247</v>
+      </c>
+      <c r="H35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -1942,8 +2151,14 @@
       <c r="F36">
         <v>4.28</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="s">
+        <v>247</v>
+      </c>
+      <c r="H36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -1959,8 +2174,14 @@
       <c r="F37">
         <v>4.63</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="s">
+        <v>245</v>
+      </c>
+      <c r="H37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -1976,8 +2197,14 @@
       <c r="F38">
         <v>4.42</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="s">
+        <v>245</v>
+      </c>
+      <c r="H38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -1993,8 +2220,14 @@
       <c r="F39">
         <v>4.4800000000000004</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="s">
+        <v>247</v>
+      </c>
+      <c r="H39" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -2010,8 +2243,14 @@
       <c r="F40">
         <v>4.4800000000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="s">
+        <v>247</v>
+      </c>
+      <c r="H40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>108</v>
       </c>
@@ -2027,8 +2266,11 @@
       <c r="F41">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -2047,8 +2289,11 @@
       <c r="F42">
         <v>4.43</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -2067,8 +2312,14 @@
       <c r="F43">
         <v>4.34</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="s">
+        <v>247</v>
+      </c>
+      <c r="H43" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -2084,8 +2335,11 @@
       <c r="F44">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>116</v>
       </c>
@@ -2101,8 +2355,11 @@
       <c r="F45">
         <v>4.45</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -2118,8 +2375,11 @@
       <c r="F46">
         <v>4.45</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -2138,8 +2398,11 @@
       <c r="F47">
         <v>4.78</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>120</v>
       </c>
@@ -2155,8 +2418,11 @@
       <c r="F48">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>123</v>
       </c>
@@ -2175,8 +2441,11 @@
       <c r="F49">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="H49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>125</v>
       </c>
@@ -2192,8 +2461,14 @@
       <c r="F50">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="s">
+        <v>247</v>
+      </c>
+      <c r="H50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>127</v>
       </c>
@@ -2209,8 +2484,11 @@
       <c r="F51">
         <v>4.45</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -2229,8 +2507,11 @@
       <c r="F52">
         <v>4.76</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -2246,8 +2527,11 @@
       <c r="F53">
         <v>4.41</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -2263,10 +2547,13 @@
       <c r="F54">
         <v>4.53</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="B55" t="s">
         <v>75</v>
@@ -2283,10 +2570,16 @@
       <c r="F55">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" t="s">
+        <v>245</v>
+      </c>
+      <c r="H55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B56" t="s">
         <v>75</v>
@@ -2300,10 +2593,16 @@
       <c r="F56">
         <v>4.5599999999999996</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" t="s">
+        <v>247</v>
+      </c>
+      <c r="H56" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
         <v>75</v>
@@ -2312,126 +2611,129 @@
         <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F57">
         <v>4.7699999999999996</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" t="s">
         <v>138</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>139</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>140</v>
-      </c>
-      <c r="D58" t="s">
-        <v>141</v>
       </c>
       <c r="F58">
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" t="s">
         <v>142</v>
       </c>
-      <c r="B59" t="s">
-        <v>139</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>143</v>
-      </c>
-      <c r="D59" t="s">
-        <v>144</v>
       </c>
       <c r="F59">
         <v>4.5</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" t="s">
         <v>145</v>
       </c>
-      <c r="B60" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>146</v>
-      </c>
-      <c r="D60" t="s">
-        <v>147</v>
       </c>
       <c r="F60">
         <v>4.29</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" t="s">
         <v>148</v>
       </c>
-      <c r="B61" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" t="s">
-        <v>149</v>
-      </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F61">
         <v>4.51</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" t="s">
         <v>150</v>
       </c>
-      <c r="B62" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>151</v>
-      </c>
-      <c r="D62" t="s">
-        <v>152</v>
       </c>
       <c r="F62">
         <v>4.68</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" t="s">
         <v>153</v>
       </c>
-      <c r="B63" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>154</v>
-      </c>
-      <c r="D63" t="s">
-        <v>155</v>
       </c>
       <c r="F63">
         <v>4.28</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" t="s">
         <v>156</v>
       </c>
-      <c r="B64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>157</v>
-      </c>
-      <c r="D64" t="s">
-        <v>158</v>
       </c>
       <c r="F64">
         <v>4.42</v>
@@ -2439,16 +2741,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="s">
         <v>159</v>
       </c>
-      <c r="B65" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" t="s">
-        <v>160</v>
-      </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F65">
         <v>4.3499999999999996</v>
@@ -2456,16 +2758,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" t="s">
         <v>161</v>
       </c>
-      <c r="B66" t="s">
-        <v>139</v>
-      </c>
-      <c r="C66" t="s">
-        <v>162</v>
-      </c>
       <c r="D66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F66">
         <v>4.43</v>
@@ -2473,16 +2775,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" t="s">
         <v>163</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>164</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>165</v>
-      </c>
-      <c r="D67" t="s">
-        <v>166</v>
       </c>
       <c r="F67">
         <v>4.3899999999999997</v>
@@ -2490,16 +2792,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" t="s">
         <v>167</v>
-      </c>
-      <c r="B68" t="s">
-        <v>164</v>
-      </c>
-      <c r="C68" t="s">
-        <v>160</v>
-      </c>
-      <c r="D68" t="s">
-        <v>168</v>
       </c>
       <c r="F68">
         <v>4.6500000000000004</v>
@@ -2507,16 +2809,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" t="s">
         <v>169</v>
-      </c>
-      <c r="B69" t="s">
-        <v>164</v>
-      </c>
-      <c r="C69" t="s">
-        <v>162</v>
-      </c>
-      <c r="D69" t="s">
-        <v>170</v>
       </c>
       <c r="F69">
         <v>4.6399999999999997</v>
@@ -2524,16 +2826,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F70">
         <v>4.42</v>
@@ -2541,16 +2843,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" t="s">
         <v>172</v>
-      </c>
-      <c r="B71" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" t="s">
-        <v>146</v>
-      </c>
-      <c r="D71" t="s">
-        <v>173</v>
       </c>
       <c r="F71">
         <v>4.57</v>
@@ -2558,16 +2860,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" t="s">
         <v>174</v>
-      </c>
-      <c r="B72" t="s">
-        <v>164</v>
-      </c>
-      <c r="C72" t="s">
-        <v>160</v>
-      </c>
-      <c r="D72" t="s">
-        <v>175</v>
       </c>
       <c r="F72">
         <v>4.55</v>
@@ -2575,16 +2877,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" t="s">
         <v>176</v>
       </c>
-      <c r="B73" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" t="s">
-        <v>177</v>
-      </c>
       <c r="D73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F73">
         <v>4.54</v>
@@ -2592,16 +2894,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F74">
         <v>4.3600000000000003</v>
@@ -2609,16 +2911,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F75">
         <v>4.32</v>
@@ -2626,16 +2928,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" t="s">
         <v>180</v>
       </c>
-      <c r="B76" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>181</v>
-      </c>
-      <c r="D76" t="s">
-        <v>182</v>
       </c>
       <c r="F76">
         <v>4.22</v>
@@ -2643,19 +2945,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" t="s">
         <v>183</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>184</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>185</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>186</v>
-      </c>
-      <c r="E77" t="s">
-        <v>187</v>
       </c>
       <c r="F77">
         <v>4.4000000000000004</v>
@@ -2663,16 +2965,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" t="s">
         <v>188</v>
-      </c>
-      <c r="B78" t="s">
-        <v>184</v>
-      </c>
-      <c r="C78" t="s">
-        <v>154</v>
-      </c>
-      <c r="D78" t="s">
-        <v>189</v>
       </c>
       <c r="F78">
         <v>4.5</v>
@@ -2680,16 +2982,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" t="s">
         <v>190</v>
       </c>
-      <c r="B79" t="s">
-        <v>184</v>
-      </c>
-      <c r="C79" t="s">
-        <v>191</v>
-      </c>
       <c r="D79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F79">
         <v>4.26</v>
@@ -2697,16 +2999,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" t="s">
+        <v>190</v>
+      </c>
+      <c r="D80" t="s">
         <v>192</v>
-      </c>
-      <c r="B80" t="s">
-        <v>184</v>
-      </c>
-      <c r="C80" t="s">
-        <v>191</v>
-      </c>
-      <c r="D80" t="s">
-        <v>193</v>
       </c>
       <c r="F80">
         <v>4.38</v>
@@ -2714,16 +3016,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" t="s">
         <v>194</v>
-      </c>
-      <c r="B81" t="s">
-        <v>184</v>
-      </c>
-      <c r="C81" t="s">
-        <v>181</v>
-      </c>
-      <c r="D81" t="s">
-        <v>195</v>
       </c>
       <c r="F81">
         <v>4.41</v>
@@ -2731,16 +3033,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" t="s">
         <v>196</v>
       </c>
-      <c r="B82" t="s">
-        <v>184</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>197</v>
-      </c>
-      <c r="D82" t="s">
-        <v>198</v>
       </c>
       <c r="F82">
         <v>4.4800000000000004</v>
@@ -2748,16 +3050,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F83">
         <v>4.66</v>
@@ -2765,16 +3067,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F84">
         <v>4.63</v>
@@ -2782,16 +3084,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F85">
         <v>4.5199999999999996</v>
@@ -2799,16 +3101,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" t="s">
         <v>202</v>
-      </c>
-      <c r="B86" t="s">
-        <v>184</v>
-      </c>
-      <c r="C86" t="s">
-        <v>146</v>
-      </c>
-      <c r="D86" t="s">
-        <v>203</v>
       </c>
       <c r="F86">
         <v>4.6100000000000003</v>
@@ -2816,16 +3118,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" t="s">
         <v>204</v>
       </c>
-      <c r="B87" t="s">
-        <v>205</v>
-      </c>
       <c r="C87" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" t="s">
         <v>154</v>
-      </c>
-      <c r="D87" t="s">
-        <v>155</v>
       </c>
       <c r="F87">
         <v>4.68</v>
@@ -2833,16 +3135,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" t="s">
         <v>206</v>
-      </c>
-      <c r="B88" t="s">
-        <v>205</v>
-      </c>
-      <c r="C88" t="s">
-        <v>143</v>
-      </c>
-      <c r="D88" t="s">
-        <v>207</v>
       </c>
       <c r="F88">
         <v>4.51</v>
@@ -2850,16 +3152,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89">
         <v>4.9000000000000004</v>
@@ -2867,16 +3169,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F90">
         <v>4.96</v>
@@ -2884,16 +3186,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C91" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F91">
         <v>4.37</v>
@@ -2901,16 +3203,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F92">
         <v>4.67</v>
@@ -2918,16 +3220,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" t="s">
         <v>212</v>
       </c>
-      <c r="B93" t="s">
-        <v>205</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>213</v>
-      </c>
-      <c r="D93" t="s">
-        <v>214</v>
       </c>
       <c r="F93">
         <v>4.3499999999999996</v>
@@ -2935,19 +3237,19 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
+        <v>214</v>
+      </c>
+      <c r="B94" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" t="s">
+        <v>161</v>
+      </c>
+      <c r="D94" t="s">
         <v>215</v>
       </c>
-      <c r="B94" t="s">
-        <v>205</v>
-      </c>
-      <c r="C94" t="s">
-        <v>162</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>216</v>
-      </c>
-      <c r="E94" t="s">
-        <v>217</v>
       </c>
       <c r="F94">
         <v>4.34</v>
@@ -2955,16 +3257,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
+        <v>217</v>
+      </c>
+      <c r="B95" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" t="s">
         <v>218</v>
       </c>
-      <c r="B95" t="s">
-        <v>205</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>219</v>
-      </c>
-      <c r="D95" t="s">
-        <v>220</v>
       </c>
       <c r="F95">
         <v>4.33</v>
@@ -2972,16 +3274,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" t="s">
         <v>221</v>
       </c>
-      <c r="B96" t="s">
-        <v>205</v>
-      </c>
-      <c r="C96" t="s">
-        <v>222</v>
-      </c>
       <c r="D96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F96">
         <v>4.66</v>
@@ -2989,16 +3291,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
+        <v>222</v>
+      </c>
+      <c r="B97" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" t="s">
         <v>223</v>
       </c>
-      <c r="B97" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" t="s">
-        <v>224</v>
-      </c>
       <c r="D97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F97">
         <v>4.49</v>
@@ -3006,19 +3308,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" t="s">
         <v>225</v>
       </c>
-      <c r="B98" t="s">
-        <v>226</v>
-      </c>
       <c r="C98" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E98" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F98">
         <v>4.3600000000000003</v>
@@ -3026,19 +3328,19 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" t="s">
         <v>227</v>
       </c>
-      <c r="B99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>228</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>229</v>
-      </c>
-      <c r="E99" t="s">
-        <v>230</v>
       </c>
       <c r="F99">
         <v>4.42</v>
@@ -3046,16 +3348,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
+        <v>230</v>
+      </c>
+      <c r="B100" t="s">
+        <v>225</v>
+      </c>
+      <c r="C100" t="s">
         <v>231</v>
       </c>
-      <c r="B100" t="s">
-        <v>226</v>
-      </c>
-      <c r="C100" t="s">
-        <v>232</v>
-      </c>
       <c r="D100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F100">
         <v>4.51</v>
@@ -3063,16 +3365,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F101">
         <v>4.3</v>
@@ -3080,16 +3382,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
+        <v>233</v>
+      </c>
+      <c r="B102" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" t="s">
         <v>234</v>
-      </c>
-      <c r="B102" t="s">
-        <v>226</v>
-      </c>
-      <c r="C102" t="s">
-        <v>219</v>
-      </c>
-      <c r="D102" t="s">
-        <v>235</v>
       </c>
       <c r="F102">
         <v>4.1900000000000004</v>
@@ -3097,16 +3399,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F103">
         <v>4.4000000000000004</v>
@@ -3114,16 +3416,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
+        <v>236</v>
+      </c>
+      <c r="B104" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" t="s">
         <v>237</v>
       </c>
-      <c r="B104" t="s">
-        <v>226</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>238</v>
-      </c>
-      <c r="D104" t="s">
-        <v>239</v>
       </c>
       <c r="F104">
         <v>4.33</v>
@@ -3131,16 +3433,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B105" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D105" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F105">
         <v>4.47</v>
@@ -3148,19 +3450,19 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C106" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F106">
         <v>4.24</v>
@@ -3168,16 +3470,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
+        <v>241</v>
+      </c>
+      <c r="B107" t="s">
+        <v>225</v>
+      </c>
+      <c r="C107" t="s">
+        <v>159</v>
+      </c>
+      <c r="D107" t="s">
         <v>242</v>
-      </c>
-      <c r="B107" t="s">
-        <v>226</v>
-      </c>
-      <c r="C107" t="s">
-        <v>160</v>
-      </c>
-      <c r="D107" t="s">
-        <v>243</v>
       </c>
       <c r="F107">
         <v>4.3499999999999996</v>
